--- a/experiment result/128_0.9_40_zs20_kappa_lp.xlsx
+++ b/experiment result/128_0.9_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004214734265381021</v>
+        <v>0.0006808180574004595</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0107024029983874</v>
+        <v>0.006760457376273715</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01127194706513521</v>
+        <v>0.009868939380406483</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004517950644652881</v>
+        <v>0.008357725318275753</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005370846416732841</v>
+        <v>0.001523315842487971</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02862507286397126</v>
+        <v>0.01846949718885792</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006054981904720166</v>
+        <v>0.01931610648385016</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003884003941173406</v>
+        <v>0.0009115049189498865</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01101222043956446</v>
+        <v>0.004667222348175913</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.004888727575276085</v>
+        <v>0.02813278931782708</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01010451731702354</v>
+        <v>0.001654365409680272</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004479583143250976</v>
+        <v>0.005030847663143463</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.001599183046616656</v>
+        <v>0.001232233354554156</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.006412328288354559</v>
+        <v>0.0007712781439737253</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.006841112785358596</v>
+        <v>0.005317142235760813</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01307833323920769</v>
+        <v>0.00778931068662915</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.005758866652130148</v>
+        <v>0.005449414189230511</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003736352482687891</v>
+        <v>0.0004684710510343811</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01082351119068918</v>
+        <v>0.01703915781042055</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01416765451596403</v>
+        <v>0.01831108225776992</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.004763432138550126</v>
+        <v>0.005152763452214874</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00755213711341606</v>
+        <v>0.002836205833661531</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.003847449976297396</v>
+        <v>0.005429833342905537</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002964861144708247</v>
+        <v>0.009288717582379849</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003312611448253133</v>
+        <v>0.0003834624304551898</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006728661832225988</v>
+        <v>0.006533221016834151</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0051102522217514</v>
+        <v>0.002295963340381646</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00626273124591911</v>
+        <v>0.01852933654314694</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01504773953804027</v>
+        <v>0.02980493464129243</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005854133055444907</v>
+        <v>0.03637300515608932</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004125844620146184</v>
+        <v>0.0001607700282142016</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.003356556402520553</v>
+        <v>0.0008088975268893079</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00698843687771473</v>
+        <v>0.03156681479825831</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.003918362819643193</v>
+        <v>0.009938650776500916</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.004885122113298048</v>
+        <v>0.01654729615573859</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.008706277151766938</v>
+        <v>0.0159966826741603</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.002166552256436276</v>
+        <v>0.0003986285602273842</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.005650072973387587</v>
+        <v>0.003787698173621709</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.007018457239777098</v>
+        <v>0.005296459605286891</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.009271730203390356</v>
+        <v>0.005623590530192034</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01595804229966772</v>
+        <v>0.02095806140737761</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.006813971029735741</v>
+        <v>0.008368420227674145</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02142660435622611</v>
+        <v>0.02359733851751669</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.005286386851655376</v>
+        <v>0.01283515463392658</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.008133060694388513</v>
+        <v>0.009833504715157631</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.005749319541265415</v>
+        <v>0.006745345192719365</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.004231848063191782</v>
+        <v>0.03335853441627538</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006667022888389803</v>
+        <v>0.03231150412270872</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01021718613539608</v>
+        <v>0.002541958068649894</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.003133666451093494</v>
+        <v>0.000603075918126091</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.00644959382311835</v>
+        <v>0.02222250101689627</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.006671454101733569</v>
+        <v>0.005991219077446365</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0007964146163232539</v>
+        <v>0.0001617077898322514</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.001664227793587546</v>
+        <v>0.0004864411793492454</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.004060929053018745</v>
+        <v>0.001532546196509662</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007163608548612288</v>
+        <v>0.01223239446967841</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.002767900665847438</v>
+        <v>0.01301387428841681</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01175839538321174</v>
+        <v>0.008337593726347041</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.004490496664365981</v>
+        <v>0.0009136203562647414</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.005146568013175838</v>
+        <v>0.001390631487400369</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001169491206097993</v>
+        <v>0.002526023093400375</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004192680511335522</v>
+        <v>0.0004893008664927286</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.004266158414511746</v>
+        <v>0.006403570657300716</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004493677741414738</v>
+        <v>0.01034135917967697</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.003997355574770318</v>
+        <v>0.0003553500496525833</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.008868570749659748</v>
+        <v>0.005701310080801875</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01614824438260465</v>
+        <v>0.01008075729850568</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.006841646857098369</v>
+        <v>0.01648625192166559</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002248634943123867</v>
+        <v>0.001515791660174048</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003355633895257495</v>
+        <v>0.003572653023901691</v>
       </c>
     </row>
   </sheetData>
